--- a/admin/mappings/Iconografie_Mapping.xlsx
+++ b/admin/mappings/Iconografie_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/Dropbox/TW Excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8706B8-702E-8C49-B3CF-722E5146409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B919D48-943F-5F4A-9406-B00079B7EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{63070529-74F9-B440-A77D-D92467CA050A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="17540" activeTab="6" xr2:uid="{63070529-74F9-B440-A77D-D92467CA050A}"/>
   </bookViews>
   <sheets>
     <sheet name="LHAQ" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="263">
   <si>
     <t>Source field</t>
   </si>
@@ -937,6 +937,9 @@
   </si>
   <si>
     <t>UX</t>
+  </si>
+  <si>
+    <t>DB NOT IMPORTED</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1083,6 +1086,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1112,7 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1347,6 +1356,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1681,8 +1708,8 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2717,14 +2744,14 @@
       <c r="B37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40" t="s">
+      <c r="E37" s="98"/>
+      <c r="F37" s="99" t="s">
         <v>217</v>
       </c>
       <c r="G37" s="39"/>
@@ -2745,14 +2772,14 @@
       <c r="B38" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40" t="s">
+      <c r="E38" s="98"/>
+      <c r="F38" s="99" t="s">
         <v>216</v>
       </c>
       <c r="G38" s="39"/>
@@ -2773,14 +2800,14 @@
       <c r="B39" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40" t="s">
+      <c r="E39" s="98"/>
+      <c r="F39" s="99" t="s">
         <v>218</v>
       </c>
       <c r="G39" s="39"/>
@@ -3465,7 +3492,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3543,48 +3570,48 @@
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="101" t="s">
         <v>155</v>
       </c>
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="101" t="s">
         <v>156</v>
       </c>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="101" t="s">
         <v>157</v>
       </c>
       <c r="F6" s="19"/>
@@ -4234,8 +4261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041F0C57-F330-634B-A03A-3F5A170BA30F}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4305,24 +4332,27 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="102" t="s">
         <v>256</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4365,7 +4395,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4682,12 +4712,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC86544-BF20-5248-8FD2-FD5A5F3000E9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" customWidth="1"/>
     <col min="6" max="6" width="78.1640625" customWidth="1"/>
   </cols>
@@ -4695,19 +4726,21 @@
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="97" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="97"/>
@@ -4756,6 +4789,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F139D8F3B50C2D439E457FCD83F422DB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32358c0d0a563a9353d71ce32bf80b2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bfe79faf-ea8a-480a-b623-b4c4f098ab1a" xmlns:ns4="420813bd-1bca-400e-9118-1f2b1aaf57ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94b7d2f1ff678068971d35b962ed62e3" ns3:_="" ns4:_="">
     <xsd:import namespace="bfe79faf-ea8a-480a-b623-b4c4f098ab1a"/>
@@ -4978,12 +5017,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{486DE5EF-A705-4287-AD0C-70D4C6910ABA}">
   <ds:schemaRefs>
@@ -4993,6 +5026,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A83C9D0-EBE8-4EEE-BC92-D0E1F829424D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="420813bd-1bca-400e-9118-1f2b1aaf57ab"/>
+    <ds:schemaRef ds:uri="bfe79faf-ea8a-480a-b623-b4c4f098ab1a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258AD14E-0566-4A1B-98AA-07E0D9394F3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5009,21 +5059,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A83C9D0-EBE8-4EEE-BC92-D0E1F829424D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="420813bd-1bca-400e-9118-1f2b1aaf57ab"/>
-    <ds:schemaRef ds:uri="bfe79faf-ea8a-480a-b623-b4c4f098ab1a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>